--- a/PR Team Daily Work Sheet 21th Mar.- 25th March 2022/Applied/Applied Industrial Printing Pty Ltd- Offsite SEO - v2 - onsite offsite report   14th Feb.- 18th Feb.2022.xlsx
+++ b/PR Team Daily Work Sheet 21th Mar.- 25th March 2022/Applied/Applied Industrial Printing Pty Ltd- Offsite SEO - v2 - onsite offsite report   14th Feb.- 18th Feb.2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seo\PR Team Daily Work Sheet 28th Feb- 4th March 2022 (1)\Applied\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seo\PR Team Daily Work Sheet 21th Mar.- 25th March 2022\Applied\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="212">
   <si>
     <t>CLICK BELOW</t>
   </si>
@@ -653,6 +653,30 @@
   </si>
   <si>
     <t>https://www.businesslistings.net.au/Industrial_Coding_and_Marking_solutions/VIC/Dandenong_South/Applied_Industrial_Printing_Pty_Ltd/713478.aspx</t>
+  </si>
+  <si>
+    <t>https://victoria.localitylist.com.au/yellowresult.php/goal/Detail/ckey/14224</t>
+  </si>
+  <si>
+    <t>https://victoria.localitylist.com.au/</t>
+  </si>
+  <si>
+    <t>Applied Industrial Printing Service in Australia</t>
+  </si>
+  <si>
+    <t>https://www.looklocally.com/</t>
+  </si>
+  <si>
+    <t>https://www.looklocally.com/dandenong-south/local-services/applied-industrial-printing-pty-ltd</t>
+  </si>
+  <si>
+    <t>https://e-australia.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.freelistingaustralia.com/</t>
+  </si>
+  <si>
+    <t>https://www.freelistingaustralia.com/listings/applied-industrial-printing-pty-ltd</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1335,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,6 +1749,22 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3415,15 +3455,15 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="189" t="s">
+      <c r="G9" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="191"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="199"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -3445,13 +3485,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="193"/>
-      <c r="M10" s="194"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="202"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -3529,17 +3569,17 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="195" t="s">
+      <c r="G13" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="195" t="s">
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="196"/>
-      <c r="M13" s="197"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="205"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -3561,17 +3601,17 @@
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="198" t="s">
+      <c r="G14" s="206" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="201" t="s">
+      <c r="H14" s="207"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="208"/>
+      <c r="K14" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="202"/>
-      <c r="M14" s="203"/>
+      <c r="L14" s="210"/>
+      <c r="M14" s="211"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -3593,17 +3633,17 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="183" t="s">
+      <c r="G15" s="191" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="186" t="s">
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="187"/>
-      <c r="M15" s="188"/>
+      <c r="L15" s="195"/>
+      <c r="M15" s="196"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3625,17 +3665,17 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="204" t="s">
+      <c r="G16" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="207" t="s">
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="214"/>
+      <c r="K16" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="208"/>
-      <c r="M16" s="209"/>
+      <c r="L16" s="216"/>
+      <c r="M16" s="217"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3657,17 +3697,17 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="214" t="s">
+      <c r="G17" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="196"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="215" t="s">
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="215"/>
-      <c r="M17" s="215"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3689,17 +3729,17 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="210" t="s">
+      <c r="G18" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="213" t="s">
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="213"/>
-      <c r="M18" s="213"/>
+      <c r="L18" s="221"/>
+      <c r="M18" s="221"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3721,17 +3761,17 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="210" t="s">
+      <c r="G19" s="218" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="212"/>
-      <c r="K19" s="216" t="s">
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="220"/>
+      <c r="K19" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="216"/>
-      <c r="M19" s="216"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3753,17 +3793,17 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="210" t="s">
+      <c r="G20" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="211"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="212"/>
-      <c r="K20" s="216" t="s">
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="220"/>
+      <c r="K20" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="216"/>
-      <c r="M20" s="216"/>
+      <c r="L20" s="224"/>
+      <c r="M20" s="224"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3785,17 +3825,17 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="210" t="s">
+      <c r="G21" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="211"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="211"/>
-      <c r="K21" s="217" t="s">
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="219"/>
+      <c r="K21" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="218"/>
-      <c r="M21" s="218"/>
+      <c r="L21" s="226"/>
+      <c r="M21" s="226"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3817,17 +3857,17 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="210" t="s">
+      <c r="G22" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="211"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="211"/>
-      <c r="K22" s="217" t="s">
+      <c r="H22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="219"/>
+      <c r="K22" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
+      <c r="L22" s="226"/>
+      <c r="M22" s="226"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3849,17 +3889,17 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="210" t="s">
+      <c r="G23" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
-      <c r="K23" s="217" t="s">
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="L23" s="218"/>
-      <c r="M23" s="218"/>
+      <c r="L23" s="226"/>
+      <c r="M23" s="226"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -10171,11 +10211,11 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="232" t="s">
+      <c r="C7" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="197"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="205"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -10201,9 +10241,9 @@
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="185"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="193"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -10285,11 +10325,11 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="231">
+      <c r="C11" s="239">
         <v>43580</v>
       </c>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -17170,16 +17210,16 @@
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="226" t="s">
+      <c r="C7" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -17201,14 +17241,14 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -17288,14 +17328,14 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="228"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -19099,16 +19139,16 @@
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="226" t="s">
+      <c r="C7" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -19130,14 +19170,14 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -19217,14 +19257,14 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="228"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
@@ -21100,10 +21140,10 @@
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="234" t="s">
+      <c r="E7" s="242" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="219"/>
+      <c r="F7" s="227"/>
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
       <c r="I7" s="68"/>
@@ -21129,8 +21169,8 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="236"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="244"/>
       <c r="G8" s="69"/>
       <c r="H8" s="69"/>
       <c r="I8" s="69"/>
@@ -21468,7 +21508,7 @@
       <c r="B18" s="18"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="237">
+      <c r="E18" s="245">
         <v>1</v>
       </c>
       <c r="F18" s="48" t="s">
@@ -21503,7 +21543,7 @@
       <c r="B19" s="18"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="238"/>
+      <c r="E19" s="246"/>
       <c r="F19" s="48" t="s">
         <v>87</v>
       </c>
@@ -21538,10 +21578,10 @@
       <c r="B20" s="18"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="239" t="s">
+      <c r="E20" s="247" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="240"/>
+      <c r="F20" s="248"/>
       <c r="G20" s="67">
         <f>SUM(G18+G19)</f>
         <v>0.33333333333333331</v>
@@ -27610,7 +27650,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27785,10 +27825,10 @@
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="219" t="s">
+      <c r="D7" s="227" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="219"/>
+      <c r="E7" s="227"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="21"/>
@@ -27813,8 +27853,8 @@
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="21"/>
@@ -27891,10 +27931,10 @@
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
-      <c r="D11" s="220" t="s">
+      <c r="D11" s="228" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="221"/>
+      <c r="E11" s="229"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
@@ -28217,10 +28257,10 @@
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
-      <c r="D22" s="224" t="s">
+      <c r="D22" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="224"/>
+      <c r="E22" s="232"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
@@ -28371,10 +28411,10 @@
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="222" t="s">
+      <c r="D28" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="225"/>
+      <c r="E28" s="233"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
@@ -28395,8 +28435,8 @@
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="222"/>
-      <c r="E29" s="225"/>
+      <c r="D29" s="230"/>
+      <c r="E29" s="233"/>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
@@ -28489,10 +28529,10 @@
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
-      <c r="D33" s="223" t="s">
+      <c r="D33" s="231" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="223"/>
+      <c r="E33" s="231"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -28695,8 +28735,8 @@
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
-      <c r="D41" s="223"/>
-      <c r="E41" s="223"/>
+      <c r="D41" s="231"/>
+      <c r="E41" s="231"/>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
@@ -31230,11 +31270,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:AB955"/>
+  <dimension ref="A1:AB964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31244,7 +31284,7 @@
     <col min="3" max="3" width="6.85546875" style="35" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="35" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="24" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="24" customWidth="1"/>
     <col min="9" max="9" width="39" style="24" customWidth="1"/>
@@ -31438,17 +31478,17 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="226" t="s">
+      <c r="C7" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="219"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="227"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
@@ -31470,15 +31510,15 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="227"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
@@ -31560,15 +31600,15 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="228"/>
-      <c r="K11" s="228"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
       <c r="N11" s="39"/>
@@ -32277,24 +32317,193 @@
       <c r="K31" s="113" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+    </row>
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="170">
+        <v>19</v>
+      </c>
+      <c r="D32" s="115">
+        <v>44641</v>
+      </c>
+      <c r="E32" s="116" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="172" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" s="113" t="s">
+        <v>204</v>
+      </c>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+    </row>
+    <row r="33" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="170">
+        <v>20</v>
+      </c>
+      <c r="D33" s="115">
+        <v>44641</v>
+      </c>
+      <c r="E33" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" s="172" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="169" t="s">
+        <v>208</v>
+      </c>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+    </row>
+    <row r="34" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="170">
+        <v>21</v>
+      </c>
+      <c r="D34" s="115">
+        <v>44641</v>
+      </c>
+      <c r="E34" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="172" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+    </row>
+    <row r="35" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="170">
+        <v>22</v>
+      </c>
+      <c r="D35" s="115">
+        <v>44641</v>
+      </c>
+      <c r="E35" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="172" t="s">
+        <v>206</v>
+      </c>
+      <c r="G35" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" s="169" t="s">
+        <v>211</v>
+      </c>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+    </row>
+    <row r="36" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="170">
+        <v>23</v>
+      </c>
+      <c r="D36" s="115"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="169"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+    </row>
+    <row r="37" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="170">
+        <v>24</v>
+      </c>
+      <c r="D37" s="115"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+    </row>
+    <row r="39" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="183"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="189"/>
+      <c r="J40" s="190"/>
+      <c r="K40" s="189"/>
+    </row>
+    <row r="41" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33202,6 +33411,15 @@
     <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C7:K8"/>
@@ -33384,16 +33602,16 @@
       <c r="U6" s="21"/>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="226" t="s">
+      <c r="A7" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
+      <c r="B7" s="227"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
@@ -33409,14 +33627,14 @@
       <c r="U7" s="21"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="226"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
@@ -33480,14 +33698,14 @@
       <c r="W10" s="39"/>
     </row>
     <row r="11" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="229"/>
-      <c r="B11" s="230"/>
-      <c r="C11" s="230"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="230"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="230"/>
-      <c r="H11" s="230"/>
+      <c r="A11" s="237"/>
+      <c r="B11" s="238"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="238"/>
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
       <c r="I11" s="77"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -35002,17 +35220,17 @@
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="226" t="s">
+      <c r="B7" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -35032,15 +35250,15 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="226"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
+      <c r="B8" s="234"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -35116,15 +35334,15 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="227"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="228"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -36723,17 +36941,17 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="226" t="s">
+      <c r="C7" s="234" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="219"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="227"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -36755,15 +36973,15 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="227"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -36845,15 +37063,15 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="228"/>
-      <c r="K11" s="228"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -38746,17 +38964,17 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="226" t="s">
+      <c r="C7" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="219"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="227"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -38778,15 +38996,15 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="227"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -38868,15 +39086,15 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="228"/>
-      <c r="K11" s="228"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -47450,17 +47668,17 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="226" t="s">
+      <c r="C7" s="234" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="219"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="227"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -47482,15 +47700,15 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="227"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -47572,15 +47790,15 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="228"/>
-      <c r="K11" s="228"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
       <c r="L11" s="77"/>
       <c r="M11" s="39"/>
       <c r="N11" s="39"/>
@@ -49131,17 +49349,17 @@
     <row r="5" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="198"/>
     </row>
     <row r="7" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
@@ -49157,11 +49375,11 @@
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
-      <c r="H10" s="231">
+      <c r="H10" s="239">
         <v>43580</v>
       </c>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
